--- a/공지/제품리스트.xlsx
+++ b/공지/제품리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\GitHub\-ERP-System\공지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2729A04-6E83-4445-9DA7-4FDEA00E4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7B48D-EB80-472C-8F34-9C2679C0A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E746D51-9FD9-4097-A38D-7309EFC36EAA}"/>
+    <workbookView xWindow="2340" yWindow="2790" windowWidth="21600" windowHeight="11505" xr2:uid="{6E746D51-9FD9-4097-A38D-7309EFC36EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,57 +444,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D6A69E-25BE-480E-9A29-CFE7A6105E86}">
-  <dimension ref="E6:M9"/>
+  <dimension ref="E6:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>3</v>
       </c>
